--- a/2015_2016_SII/Progression_2015_2016_SII.xlsx
+++ b/2015_2016_SII/Progression_2015_2016_SII.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8940" yWindow="30" windowWidth="11625" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="Progression_PTSI" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="CahierTextePT" sheetId="4" r:id="rId1"/>
+    <sheet name="Progression_PTSI" sheetId="1" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="155">
   <si>
     <t>Semaine</t>
   </si>
@@ -337,6 +338,302 @@
   </si>
   <si>
     <t>Métrologie</t>
+  </si>
+  <si>
+    <t>CONCOURS</t>
+  </si>
+  <si>
+    <t>TIPE</t>
+  </si>
+  <si>
+    <t>Analyser, Modéliser, Résoudre, Communiquer</t>
+  </si>
+  <si>
+    <t>Révisions</t>
+  </si>
+  <si>
+    <t>Communiquer</t>
+  </si>
+  <si>
+    <t>Présentation de TP</t>
+  </si>
+  <si>
+    <t>Analyse et Modélisation des systèmes à événements discrets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modéliser du comportement d'un SED  </t>
+  </si>
+  <si>
+    <t>Ascenseur - Matlab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Révision : Modélisation des actions mécaniques en fraisage et des petits déplacements d'une pièce. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modélisation et conception d'un correcteur de la position de la gouverne de profondeur d'un avion. </t>
+  </si>
+  <si>
+    <t>Etude du treuil de la dameuse Prinoth Everest
+Modélisation mécanique et des SLCI
+Conception.</t>
+  </si>
+  <si>
+    <t>Etude d'un dispositif optionnel de motorisation d'un chariot industriel
+Modélisation, Résolution et dimensionnement. 
+Conception.</t>
+  </si>
+  <si>
+    <t>Révision Spécifications GPS
+Groupes d'éléments tolérancés.</t>
+  </si>
+  <si>
+    <t>Introduction à la démarche de simulation.</t>
+  </si>
+  <si>
+    <t>Spécifications géométriques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modélisation du Winch. 
+Du modèle global (schématisation cinématique) à la modélisation des efforts locaux. </t>
+  </si>
+  <si>
+    <t>Modéliser les actions mécaniques sur une pièce
+Mettre en œuvre une simulation
+Exprimer les hypothèses et choix de simulation</t>
+  </si>
+  <si>
+    <t>Mettre en œuvre une mesure de spécification géométrique
+Exploiter des résultats de mesure
+Maitriser l’exploitation de résultats d’une MMT</t>
+  </si>
+  <si>
+    <t>Mesure de battement, circularité, planéité… 
+Arbre de boite de vitesse
+Boitier de différentiel
+Colonne de direction 
+Cloche frein
+Planeite embase
+Plaineite mors</t>
+  </si>
+  <si>
+    <t>Introduction à la démarche d'Analyse - Modélisation - Résolution.
+TP Inductif.</t>
+  </si>
+  <si>
+    <t>Analyser et réaliser
+Rotation 2 semaines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projet de conception.
+Concevoir un produits en fonction des contraintes PPM. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support de Caméra moto GP. </t>
+  </si>
+  <si>
+    <t>Chaque équipe propose la conception d'un produit avec une contrainte Procédé - Matériau. 
+Synthèse du projet en semaine 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prendre en compte les déformations dans l’analyse de solutions.
+Simuler les contraintes et déformations de pièces
+Mesurer les écarts entre réponse et résultats
+</t>
+  </si>
+  <si>
+    <t>TP en ILOT. 
+Analyser, Modéliser et résoudre l
+Première série de 2 semaines : Synthèse sous forme de poster.
+Série 2 ; Synthèse sous forme de présentation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposer et valider une modélisation ;
+Procéder à la mise en œuvre d’une simulation analytique ;
+Procéder à la mise en œuvre d’une simulation numérique
+</t>
+  </si>
+  <si>
+    <t>TP Découverte. 
+Analyse et modélisation du comportement dynamique des systèmes.</t>
+  </si>
+  <si>
+    <t>Sympact
+Vérification du choix du moteur d'une barrière de péage.</t>
+  </si>
+  <si>
+    <t>Analyser et modéliser les pertes énergétiques dans les chevilles du robot NAO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifications des jeux et inerties
+Analyse des frottements
+Analyse des paramètres qui influent sur le rendement
+</t>
+  </si>
+  <si>
+    <t>Cheville NAO.</t>
+  </si>
+  <si>
+    <t>Analyse, Modélisation et résolution du comportement dynamique des systèmes.
+Rotation de TP</t>
+  </si>
+  <si>
+    <t>Equilibreuse.</t>
+  </si>
+  <si>
+    <t>TP-TD</t>
+  </si>
+  <si>
+    <t>Galet freineur
+MaxPID
+Nacelle
+Capsuleuse
+Uhing</t>
+  </si>
+  <si>
+    <t>Analyse et Réalisation d'une produit Mécanique</t>
+  </si>
+  <si>
+    <t>Etude produit-procédé-matériau
+Gamme de réalisation de produit
+Présentation de différents choix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trompette de liaison d'hélicoptère
+Bague extérieure de roulement de roue arrière.
+</t>
+  </si>
+  <si>
+    <t>Nacelle de drone, Capsuleuse de bocaux, Cordeuse de raquette
+Cheville robot NAO
+Maxpid</t>
+  </si>
+  <si>
+    <t>Modéliser un système
+Déterminer grâce à une simulation numérique le réglage d’un correcteur Proportionnel pour que le système vérifie le critère de stabilité du cahier des charges.
+Vérifier le comportement réel du système corrigé et valider ou non le réglage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction aux liaisons pivot réalisées par roulement. </t>
+  </si>
+  <si>
+    <t>Introduction à la métrologie.</t>
+  </si>
+  <si>
+    <t>Exercices d'applications à la RDM. Détermination de torseur de cohésion. 
+Panneau de circulation.</t>
+  </si>
+  <si>
+    <t>TD d'application sur la conception de liaisons pibot. Aide à la conception avec le logiciel Pyvot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suite et fin - Conception liaison pivot. </t>
+  </si>
+  <si>
+    <t>Etude des sollicitations et des déformations d'une structure. 
+Toit de l'aéroport Lénoard de Vinci.</t>
+  </si>
+  <si>
+    <t>Résolution de problèmes hyperstatique. Poutre biencastrée…</t>
+  </si>
+  <si>
+    <t>Conception d'un séparateur centrifuge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD Synthese RDM
+Imprimante 3D. </t>
+  </si>
+  <si>
+    <t>TD Chasseur de mines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD Chasseur de mines.
+Dimensionnement de composant ;
+Analyse d’un système à deux mobilités ;
+Conception d’un treuil.
+</t>
+  </si>
+  <si>
+    <t>TD Application Cinétique : régulateur centrifuge.</t>
+  </si>
+  <si>
+    <t>Déterminer une loi de mouvement par le Théorème de l’énergie cinétique.
+Train épicycloidal.</t>
+  </si>
+  <si>
+    <t>TD Chasseur de mine (Fin)</t>
+  </si>
+  <si>
+    <t>Résolution de problème de dynamique.
+Wheeling de moto.</t>
+  </si>
+  <si>
+    <t>TD Banc d'essai prothèse fémorale.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cordeuse de raquette : 
+Raquette, corde, berceaun, pince, système complet. </t>
+  </si>
+  <si>
+    <t>Résolution de problème de dynamique.
+Pompe à plateau.</t>
+  </si>
+  <si>
+    <t>Traitements thermiques.</t>
+  </si>
+  <si>
+    <t>Durée de vie des roulements.</t>
+  </si>
+  <si>
+    <t>Etanchéité et lubrification des systèmes mécaniques.</t>
+  </si>
+  <si>
+    <t>Exprimer de façon pratique les conditions qui définissent le fait qu’un solide soit « équilibré ».
+Déterminer l’expression des inconnues de l’équilibrage.
+Exprimer les relations mathématiques entre les paramètres du problème, de façon à permettre la programmation du calculateur d’une machine d’équilibrage.</t>
+  </si>
+  <si>
+    <t>Entrainement à l'interrogation de SII de la banque PT. 
+Servocommande de vanne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyser, Modéliser et Expérimenter les convertisseurs de systèmes pluritechnologiques. </t>
+  </si>
+  <si>
+    <t>CONCOURS BLANC</t>
+  </si>
+  <si>
+    <t>Identifications des jeux et inerties
+Analyse des frottements
+Résoudre un problème technique en le modélisant par la dynamique</t>
+  </si>
+  <si>
+    <t>TD SLCI
+Assezmblage robot FALCON</t>
+  </si>
+  <si>
+    <t>TD Ouvre portail</t>
+  </si>
+  <si>
+    <t>TD Remérdiation SLCI</t>
+  </si>
+  <si>
+    <t>TD SLCI Cisaille volante.</t>
+  </si>
+  <si>
+    <t>11/01/2016
+au
+17/01/2016</t>
+  </si>
+  <si>
+    <t>Processus de fabrication.
+(Machines, MIP, MAP, Porte pieces)
+Alimentation en papier d'une rotative d'impression.</t>
+  </si>
+  <si>
+    <t>Exercices d'application.</t>
+  </si>
+  <si>
+    <t>Résolution de problème de dynamique.</t>
   </si>
 </sst>
 </file>
@@ -347,7 +644,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +675,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -399,7 +703,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -694,11 +998,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -793,12 +1270,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -814,22 +1285,145 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1135,11 +1729,915 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44:K44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="42.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8" style="4" customWidth="1"/>
+    <col min="7" max="8" width="41.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="30" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="G2" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="64"/>
+    </row>
+    <row r="3" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="65"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="66"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="74"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="65"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="21" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:11" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="77"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="66"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="45"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="77"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="79"/>
+      <c r="C32" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="83"/>
+    </row>
+    <row r="33" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="67"/>
+      <c r="C33" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="80"/>
+    </row>
+    <row r="34" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="13"/>
+    </row>
+    <row r="35" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="13"/>
+    </row>
+    <row r="36" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="63"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="46"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="18"/>
+    </row>
+    <row r="38" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="36"/>
+    </row>
+    <row r="40" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="42"/>
+      <c r="C41" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="59"/>
+    </row>
+    <row r="42" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="50"/>
+    </row>
+    <row r="43" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="51"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="53"/>
+    </row>
+    <row r="44" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="43"/>
+      <c r="C44" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="56"/>
+    </row>
+    <row r="45" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="43"/>
+      <c r="C45" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="77"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="43"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B42:K43"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="H35:H37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K50"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B5"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1189,35 +2687,35 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="30"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="42"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
@@ -1226,12 +2724,12 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="44"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="12" t="s">
         <v>65</v>
       </c>
@@ -1247,9 +2745,9 @@
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="44" t="s">
         <v>78</v>
       </c>
       <c r="E5" s="12"/>
@@ -1264,11 +2762,11 @@
       <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="63" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="19"/>
-      <c r="D6" s="32"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -1281,12 +2779,12 @@
       <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="44" t="s">
         <v>76</v>
       </c>
       <c r="F7" s="12"/>
@@ -1300,12 +2798,12 @@
       <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="63" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1317,10 +2815,10 @@
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -1330,21 +2828,21 @@
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="38"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
@@ -1355,10 +2853,10 @@
         <v>67</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="47" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="21"/>
@@ -1372,12 +2870,12 @@
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="44" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="19"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -1389,10 +2887,10 @@
       <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -1404,7 +2902,7 @@
       <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="44" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="19"/>
@@ -1421,7 +2919,7 @@
       <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -1436,7 +2934,7 @@
       <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="44" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="19"/>
@@ -1453,7 +2951,7 @@
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -1486,7 +2984,7 @@
       <c r="A23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="21"/>
@@ -1503,7 +3001,7 @@
       <c r="A24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="19"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -1518,7 +3016,7 @@
       <c r="A25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="44" t="s">
         <v>71</v>
       </c>
       <c r="C25" s="19"/>
@@ -1535,7 +3033,7 @@
       <c r="A26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="32"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="20"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -1550,7 +3048,7 @@
       <c r="A27" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="44" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="19"/>
@@ -1567,7 +3065,7 @@
       <c r="A28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="40"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="22"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -1580,28 +3078,28 @@
     </row>
     <row r="29" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="38"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
     </row>
     <row r="31" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="47" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="21"/>
@@ -1618,7 +3116,7 @@
       <c r="A33" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="32"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="19"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -1633,7 +3131,7 @@
       <c r="A34" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="44" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="19"/>
@@ -1650,7 +3148,7 @@
       <c r="A35" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="19"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -1693,21 +3191,21 @@
     </row>
     <row r="38" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="38"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="36"/>
     </row>
     <row r="40" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
@@ -1876,27 +3374,15 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B3:B5"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1910,4 +3396,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2015_2016_SII/Progression_2015_2016_SII.xlsx
+++ b/2015_2016_SII/Progression_2015_2016_SII.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="30" windowWidth="11625" windowHeight="7815"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14055" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="CahierTextePT" sheetId="4" r:id="rId1"/>
-    <sheet name="Progression_PTSI" sheetId="1" r:id="rId2"/>
+    <sheet name="Old" sheetId="1" r:id="rId2"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="167">
   <si>
     <t>Semaine</t>
   </si>
@@ -634,6 +637,42 @@
   </si>
   <si>
     <t>Résolution de problème de dynamique.</t>
+  </si>
+  <si>
+    <t>Modélisation et résolution des problèmes de statique.</t>
+  </si>
+  <si>
+    <t>Modélisation des contraintes et des déformations des solides déformables.</t>
+  </si>
+  <si>
+    <t>Résolution des problèmes hyperstatiques.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modélisation des petits déplacements des structures déformables. </t>
+  </si>
+  <si>
+    <t>Modélisation des solides localement. Th. De Hertz.</t>
+  </si>
+  <si>
+    <t>Modélisation des caractéristiques inertielles des solides.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modélisation et résolution des problèmes de dynamique des systèmes de solides. </t>
+  </si>
+  <si>
+    <t>Modélisation des convertisseurs élecrtromécaniques.</t>
+  </si>
+  <si>
+    <t>Modélisation des SLCI</t>
+  </si>
+  <si>
+    <t>Analyse des performances des SLCI (Stabilité, Rapidité, Précision).</t>
+  </si>
+  <si>
+    <t>Modélisation et conception des correcteurs des SLCI en vue d'améliorer les performances des systèmes.</t>
+  </si>
+  <si>
+    <t>Modélisation causale des systèmes multiphysiques.</t>
   </si>
 </sst>
 </file>
@@ -677,13 +716,12 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,8 +740,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1171,11 +1275,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1267,9 +1391,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1306,52 +1427,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,67 +1481,121 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1438,6 +1610,79 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7048500" y="13211211"/>
+          <a:ext cx="5705475" cy="4981539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Feuil1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1730,16 +1975,16 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C44" sqref="C44:K44"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="3" customWidth="1"/>
     <col min="4" max="5" width="42.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="8" style="4" customWidth="1"/>
@@ -1789,30 +2034,30 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="G2" s="64" t="s">
+      <c r="E2" s="67"/>
+      <c r="G2" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="64"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="72" t="s">
-        <v>75</v>
+      <c r="B3" s="78" t="s">
+        <v>155</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="65"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
@@ -1821,12 +2066,12 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="73"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="66"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
         <v>93</v>
@@ -1838,11 +2083,13 @@
       <c r="J4" s="12"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="73"/>
+      <c r="B5" s="80" t="s">
+        <v>156</v>
+      </c>
       <c r="C5" s="19" t="s">
         <v>99</v>
       </c>
@@ -1863,20 +2110,18 @@
       <c r="J5" s="12"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="80"/>
+      <c r="C6" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="65" t="s">
         <v>98</v>
       </c>
       <c r="F6" s="12"/>
@@ -1890,14 +2135,14 @@
       <c r="J6" s="12"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="70"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
         <v>126</v>
@@ -1909,20 +2154,20 @@
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="44" t="s">
+      <c r="B8" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="50" t="s">
         <v>102</v>
       </c>
       <c r="F8" s="12"/>
@@ -1940,10 +2185,12 @@
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="B9" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17" t="s">
         <v>129</v>
@@ -1957,42 +2204,44 @@
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="47" t="s">
+      <c r="B13" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="49" t="s">
         <v>137</v>
       </c>
       <c r="F13" s="21"/>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="65"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="23"/>
@@ -2001,10 +2250,12 @@
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
+      <c r="B14" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19" t="s">
         <v>132</v>
@@ -2016,14 +2267,14 @@
       <c r="J14" s="19"/>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19" t="s">
         <v>133</v>
@@ -2039,10 +2290,12 @@
       <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
+      <c r="B16" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19" t="s">
         <v>135</v>
@@ -2058,8 +2311,8 @@
       <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="68" t="s">
+      <c r="B17" s="87"/>
+      <c r="C17" s="43" t="s">
         <v>107</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -2079,18 +2332,18 @@
       <c r="J17" s="19"/>
       <c r="K17" s="24"/>
     </row>
-    <row r="18" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="63" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="57" t="s">
         <v>111</v>
       </c>
       <c r="F18" s="19"/>
@@ -2108,10 +2361,10 @@
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="46"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22" t="s">
         <v>138</v>
@@ -2145,14 +2398,16 @@
       <c r="A23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="47"/>
+      <c r="B23" s="89" t="s">
+        <v>162</v>
+      </c>
       <c r="C23" s="9" t="s">
         <v>114</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E23" s="75" t="s">
+      <c r="E23" s="44" t="s">
         <v>113</v>
       </c>
       <c r="F23" s="9"/>
@@ -2170,21 +2425,21 @@
       <c r="A24" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="44" t="s">
+      <c r="B24" s="90"/>
+      <c r="C24" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="57" t="s">
         <v>115</v>
       </c>
       <c r="F24" s="12"/>
-      <c r="G24" s="76" t="s">
+      <c r="G24" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="H24" s="77"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="13"/>
@@ -2193,32 +2448,36 @@
       <c r="A25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="63"/>
+      <c r="B25" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="50"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="H25" s="66"/>
+      <c r="H25" s="62"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="63"/>
+      <c r="B26" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="50"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="76" t="s">
+      <c r="G26" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="H26" s="77"/>
+      <c r="H26" s="53"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="13"/>
@@ -2227,10 +2486,10 @@
       <c r="A27" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="45"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
         <v>149</v>
@@ -2242,15 +2501,15 @@
       <c r="J27" s="12"/>
       <c r="K27" s="13"/>
     </row>
-    <row r="28" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="37" t="s">
+      <c r="B28" s="94"/>
+      <c r="C28" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="36" t="s">
         <v>117</v>
       </c>
       <c r="E28" s="17" t="s">
@@ -2267,74 +2526,76 @@
     </row>
     <row r="29" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="35"/>
     </row>
     <row r="31" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="81" t="s">
+      <c r="B32" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="83"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="63" t="s">
+      <c r="B33" s="96"/>
+      <c r="C33" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="63" t="s">
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="80"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="46"/>
     </row>
     <row r="34" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="45"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="13"/>
@@ -2343,13 +2604,13 @@
       <c r="A35" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="44" t="s">
+      <c r="H35" s="57" t="s">
         <v>91</v>
       </c>
       <c r="I35" s="12"/>
@@ -2360,28 +2621,30 @@
       <c r="A36" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="38" t="s">
+      <c r="B36" s="98" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="51"/>
+      <c r="D36" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="37" t="s">
         <v>84</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H36" s="63"/>
+      <c r="H36" s="50"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="13"/>
     </row>
-    <row r="37" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="28"/>
+      <c r="B37" s="99"/>
       <c r="C37" s="29" t="s">
         <v>85</v>
       </c>
@@ -2391,124 +2654,124 @@
       <c r="E37" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37" t="s">
+      <c r="F37" s="36"/>
+      <c r="G37" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="46"/>
+      <c r="H37" s="63"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="18"/>
     </row>
     <row r="38" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="36"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="35"/>
     </row>
     <row r="40" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="57" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="59"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="77"/>
     </row>
     <row r="42" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="50"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="70"/>
     </row>
     <row r="43" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="53"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="73"/>
     </row>
     <row r="44" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="54" t="s">
+      <c r="B44" s="42"/>
+      <c r="C44" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="56"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="75"/>
     </row>
     <row r="45" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="43"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="76" t="s">
+      <c r="G45" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="H45" s="77"/>
+      <c r="H45" s="53"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
       <c r="K45" s="13"/>
     </row>
     <row r="46" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="43"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="19"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -2520,10 +2783,10 @@
       <c r="K46" s="13"/>
     </row>
     <row r="47" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="43"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="19"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -2535,10 +2798,10 @@
       <c r="K47" s="13"/>
     </row>
     <row r="48" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="43"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="19"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -2550,7 +2813,7 @@
       <c r="K48" s="13"/>
     </row>
     <row r="49" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="39" t="s">
         <v>37</v>
       </c>
       <c r="B49" s="15"/>
@@ -2565,7 +2828,7 @@
       <c r="K49" s="13"/>
     </row>
     <row r="50" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="40" t="s">
         <v>38</v>
       </c>
       <c r="B50" s="16"/>
@@ -2580,7 +2843,32 @@
       <c r="K50" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="41">
+    <mergeCell ref="B42:K43"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="E13:E16"/>
     <mergeCell ref="G45:H45"/>
@@ -2597,35 +2885,10 @@
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B42:K43"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="H35:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2637,7 +2900,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2687,35 +2950,35 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="64"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="64"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="49" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="65"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
@@ -2724,12 +2987,12 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="66"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="12" t="s">
         <v>65</v>
       </c>
@@ -2745,9 +3008,9 @@
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="57" t="s">
         <v>78</v>
       </c>
       <c r="E5" s="12"/>
@@ -2762,11 +3025,11 @@
       <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="50" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="19"/>
-      <c r="D6" s="45"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -2779,12 +3042,12 @@
       <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="57" t="s">
         <v>76</v>
       </c>
       <c r="F7" s="12"/>
@@ -2798,12 +3061,12 @@
       <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="50" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -2815,10 +3078,10 @@
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -2828,21 +3091,21 @@
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
@@ -2853,10 +3116,10 @@
         <v>67</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="49" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="21"/>
@@ -2870,12 +3133,12 @@
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="57" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="19"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -2887,10 +3150,10 @@
       <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -2902,7 +3165,7 @@
       <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="57" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="19"/>
@@ -2919,7 +3182,7 @@
       <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -2934,7 +3197,7 @@
       <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="57" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="19"/>
@@ -2951,7 +3214,7 @@
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -2984,7 +3247,7 @@
       <c r="A23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="49" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="21"/>
@@ -3001,7 +3264,7 @@
       <c r="A24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="45"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="19"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -3016,7 +3279,7 @@
       <c r="A25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="57" t="s">
         <v>71</v>
       </c>
       <c r="C25" s="19"/>
@@ -3033,7 +3296,7 @@
       <c r="A26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="45"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="20"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -3048,7 +3311,7 @@
       <c r="A27" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="57" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="19"/>
@@ -3065,7 +3328,7 @@
       <c r="A28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="22"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -3078,28 +3341,28 @@
     </row>
     <row r="29" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="35"/>
     </row>
     <row r="31" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="21"/>
@@ -3116,7 +3379,7 @@
       <c r="A33" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="45"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="19"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -3131,7 +3394,7 @@
       <c r="A34" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="57" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="19"/>
@@ -3148,7 +3411,7 @@
       <c r="A35" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="19"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -3191,21 +3454,21 @@
     </row>
     <row r="38" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="36"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="35"/>
     </row>
     <row r="40" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
@@ -3360,6 +3623,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="D7:D9"/>
@@ -3374,12 +3643,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2015_2016_SII/Progression_2015_2016_SII.xlsx
+++ b/2015_2016_SII/Progression_2015_2016_SII.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14055" windowHeight="7860"/>
+    <workbookView xWindow="6885" yWindow="30" windowWidth="13680" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="CahierTextePT" sheetId="4" r:id="rId1"/>
@@ -12,15 +12,12 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="188">
   <si>
     <t>Semaine</t>
   </si>
@@ -376,11 +373,6 @@
     <t xml:space="preserve">Modélisation et conception d'un correcteur de la position de la gouverne de profondeur d'un avion. </t>
   </si>
   <si>
-    <t>Etude du treuil de la dameuse Prinoth Everest
-Modélisation mécanique et des SLCI
-Conception.</t>
-  </si>
-  <si>
     <t>Etude d'un dispositif optionnel de motorisation d'un chariot industriel
 Modélisation, Résolution et dimensionnement. 
 Conception.</t>
@@ -391,9 +383,6 @@
   </si>
   <si>
     <t>Introduction à la démarche de simulation.</t>
-  </si>
-  <si>
-    <t>Spécifications géométriques</t>
   </si>
   <si>
     <t xml:space="preserve">Modélisation du Winch. 
@@ -431,9 +420,6 @@
 Concevoir un produits en fonction des contraintes PPM. </t>
   </si>
   <si>
-    <t xml:space="preserve">Support de Caméra moto GP. </t>
-  </si>
-  <si>
     <t>Chaque équipe propose la conception d'un produit avec une contrainte Procédé - Matériau. 
 Synthèse du projet en semaine 2.</t>
   </si>
@@ -442,12 +428,6 @@
 Simuler les contraintes et déformations de pièces
 Mesurer les écarts entre réponse et résultats
 </t>
-  </si>
-  <si>
-    <t>TP en ILOT. 
-Analyser, Modéliser et résoudre l
-Première série de 2 semaines : Synthèse sous forme de poster.
-Série 2 ; Synthèse sous forme de présentation.</t>
   </si>
   <si>
     <t xml:space="preserve">Proposer et valider une modélisation ;
@@ -516,29 +496,14 @@
 Vérifier le comportement réel du système corrigé et valider ou non le réglage.</t>
   </si>
   <si>
-    <t xml:space="preserve">Introduction aux liaisons pivot réalisées par roulement. </t>
-  </si>
-  <si>
-    <t>Introduction à la métrologie.</t>
-  </si>
-  <si>
     <t>Exercices d'applications à la RDM. Détermination de torseur de cohésion. 
 Panneau de circulation.</t>
   </si>
   <si>
-    <t>TD d'application sur la conception de liaisons pibot. Aide à la conception avec le logiciel Pyvot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite et fin - Conception liaison pivot. </t>
-  </si>
-  <si>
     <t>Etude des sollicitations et des déformations d'une structure. 
 Toit de l'aéroport Lénoard de Vinci.</t>
   </si>
   <si>
-    <t>Résolution de problèmes hyperstatique. Poutre biencastrée…</t>
-  </si>
-  <si>
     <t>Conception d'un séparateur centrifuge.</t>
   </si>
   <si>
@@ -549,13 +514,6 @@
     <t>TD Chasseur de mines.</t>
   </si>
   <si>
-    <t xml:space="preserve">TD Chasseur de mines.
-Dimensionnement de composant ;
-Analyse d’un système à deux mobilités ;
-Conception d’un treuil.
-</t>
-  </si>
-  <si>
     <t>TD Application Cinétique : régulateur centrifuge.</t>
   </si>
   <si>
@@ -575,16 +533,6 @@
   <si>
     <t xml:space="preserve">Cordeuse de raquette : 
 Raquette, corde, berceaun, pince, système complet. </t>
-  </si>
-  <si>
-    <t>Résolution de problème de dynamique.
-Pompe à plateau.</t>
-  </si>
-  <si>
-    <t>Traitements thermiques.</t>
-  </si>
-  <si>
-    <t>Durée de vie des roulements.</t>
   </si>
   <si>
     <t>Etanchéité et lubrification des systèmes mécaniques.</t>
@@ -610,14 +558,7 @@
 Résoudre un problème technique en le modélisant par la dynamique</t>
   </si>
   <si>
-    <t>TD SLCI
-Assezmblage robot FALCON</t>
-  </si>
-  <si>
     <t>TD Ouvre portail</t>
-  </si>
-  <si>
-    <t>TD Remérdiation SLCI</t>
   </si>
   <si>
     <t>TD SLCI Cisaille volante.</t>
@@ -633,12 +574,6 @@
 Alimentation en papier d'une rotative d'impression.</t>
   </si>
   <si>
-    <t>Exercices d'application.</t>
-  </si>
-  <si>
-    <t>Résolution de problème de dynamique.</t>
-  </si>
-  <si>
     <t>Modélisation et résolution des problèmes de statique.</t>
   </si>
   <si>
@@ -673,6 +608,151 @@
   </si>
   <si>
     <t>Modélisation causale des systèmes multiphysiques.</t>
+  </si>
+  <si>
+    <t>Introduction à la métrologie sur des pièces réalisées.</t>
+  </si>
+  <si>
+    <t>CONCEVOIR. 
+Introduction aux liaisons pivot réalisées par éléments roulants.</t>
+  </si>
+  <si>
+    <t>CONCEVOIR.
+TD d'application sur la conception de liaisons pivot. Aide à la conception avec le logiciel Pyvot.</t>
+  </si>
+  <si>
+    <t>ANALYSER.
+Révisions sur les éléments de la norme GPS.</t>
+  </si>
+  <si>
+    <t>Résolution de problèmes hyperstatique. 
+Conditions aux limites.
+Poutre biencastrée…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCEVOIR.
+Suite et fin - Conception liaison pivot. </t>
+  </si>
+  <si>
+    <t>ANLAYSER; MODELISER ET CONCEVOIR. 
+TD Chasseur de mines.
+Dimensionnement de composants
+Analyse d’un système à deux mobilités;
+Conception d’un treuil.</t>
+  </si>
+  <si>
+    <t>Durée de vie des roulements.
+Exercices d'application.</t>
+  </si>
+  <si>
+    <t>ANALYSER ET REALISER
+Traitements thermiques.</t>
+  </si>
+  <si>
+    <t>Résolution de problème de dynamique.
+Pompe oscillante.</t>
+  </si>
+  <si>
+    <t>Résolution de problème de dynamique.
+TD Véhicule robot Clever.</t>
+  </si>
+  <si>
+    <t>TD SLCI
+Assemblage robot FALCON</t>
+  </si>
+  <si>
+    <t>TD Remédiation SLCI. 
+Algèbre de schéma blocs, système avec perturbation.</t>
+  </si>
+  <si>
+    <t>TD application correcteurs.</t>
+  </si>
+  <si>
+    <t>Etude du treuil de la dameuse Prinoth Everest
+Modélisation mécanique et des SLCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCEVOIR
+Dameuse Prinoth Everest
+</t>
+  </si>
+  <si>
+    <t>Entrainement à l'interrogation de SII de la banque PT. 
+Transmission de HorsBoard</t>
+  </si>
+  <si>
+    <t>Entrainement à l'interrogation de SII de la banque PT. 
+Cisaille hydraulique.</t>
+  </si>
+  <si>
+    <t>Entrainement à l'interrogation de SII de la banque PT. 
+Fluoperçage.</t>
+  </si>
+  <si>
+    <t>Support de Caméra moto GP. 
+(Carbone, Plastique+Injection, acier+forge, alu moulé, métal+pliage)</t>
+  </si>
+  <si>
+    <t>TP en ILOT. 
+Analyser, Modéliser et résoudre
+Première série de 2 semaines : Synthèse sous forme de poster.
+Série 2 ; Synthèse sous forme de présentation.</t>
+  </si>
+  <si>
+    <t>Exercices d'application moteurs triphasés.</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Statique + Torseur cohésion</t>
+  </si>
+  <si>
+    <t>Cycle</t>
+  </si>
+  <si>
+    <t>Suspension BMW
+Statique - RdM - GPS</t>
+  </si>
+  <si>
+    <t>DM de RDM Réducteur roue vis sans fin.</t>
+  </si>
+  <si>
+    <t>DS Enrouelment câbles.
+RdM - Métrologie - Conception.</t>
+  </si>
+  <si>
+    <t>R2vision cinématique</t>
+  </si>
+  <si>
+    <t>Dynamique</t>
+  </si>
+  <si>
+    <t>DS - Ascenseur à cable</t>
+  </si>
+  <si>
+    <t>PFD TEC</t>
+  </si>
+  <si>
+    <t>Dynamique 
+Elevateur à bateau.</t>
+  </si>
+  <si>
+    <t>SLCI</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>DS Dynamique et SLCI
+Robot de téléchiruriie.</t>
+  </si>
+  <si>
+    <t>SLCI Correcteurs</t>
+  </si>
+  <si>
+    <t>Dynamique - SLCI - ELEC 
+Fauteuil de cinéma</t>
   </si>
 </sst>
 </file>
@@ -721,7 +801,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -806,6 +886,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCD2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="39">
     <border>
@@ -1299,7 +1391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1427,176 +1519,344 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1604,85 +1864,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFCD2F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19086</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7048500" y="13211211"/>
-          <a:ext cx="5705475" cy="4981539"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1974,11 +2167,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:E3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1988,8 +2181,8 @@
     <col min="3" max="3" width="20.7109375" style="3" customWidth="1"/>
     <col min="4" max="5" width="42.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="8" style="4" customWidth="1"/>
-    <col min="7" max="8" width="41.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="41.140625" style="98" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="4" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" style="4" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="4"/>
@@ -2000,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>54</v>
@@ -2034,30 +2227,30 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="G2" s="67" t="s">
+      <c r="E2" s="75"/>
+      <c r="G2" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="67"/>
+      <c r="H2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78" t="s">
-        <v>155</v>
+      <c r="B3" s="80" t="s">
+        <v>138</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="48"/>
+      <c r="D3" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="76"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
@@ -2066,20 +2259,20 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="79"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="62"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="12"/>
+      <c r="G4" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="63"/>
       <c r="J4" s="12"/>
       <c r="K4" s="13"/>
     </row>
@@ -2087,26 +2280,26 @@
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="80" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>95</v>
+      <c r="B5" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>93</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I5" s="12"/>
+      <c r="G5" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" s="62"/>
       <c r="J5" s="12"/>
       <c r="K5" s="13"/>
     </row>
@@ -2114,43 +2307,47 @@
       <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="65" t="s">
+      <c r="B6" s="82"/>
+      <c r="C6" s="92" t="s">
         <v>98</v>
       </c>
+      <c r="D6" s="128" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="129" t="s">
+        <v>96</v>
+      </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="G6" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="J6" s="148" t="s">
+        <v>175</v>
+      </c>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="66"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="129"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" s="12"/>
+      <c r="G7" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="93"/>
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
     </row>
@@ -2158,26 +2355,28 @@
       <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>102</v>
+      <c r="B8" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="126" t="s">
+        <v>169</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="I8" s="12"/>
+      <c r="G8" s="103" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="116" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>172</v>
+      </c>
       <c r="J8" s="12"/>
       <c r="K8" s="13"/>
     </row>
@@ -2185,21 +2384,23 @@
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
+      <c r="B9" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="G9" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="117" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="64"/>
+      <c r="J9" s="17" t="s">
+        <v>176</v>
+      </c>
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2214,8 +2415,8 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="35"/>
@@ -2225,45 +2426,49 @@
       <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>137</v>
+      <c r="B13" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="130" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="130" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="130" t="s">
+        <v>127</v>
       </c>
       <c r="F13" s="21"/>
-      <c r="G13" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="G13" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="106"/>
+      <c r="I13" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>177</v>
+      </c>
       <c r="K13" s="23"/>
     </row>
     <row r="14" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+      <c r="B14" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="I14" s="19"/>
+      <c r="G14" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="93"/>
       <c r="J14" s="19"/>
       <c r="K14" s="24"/>
     </row>
@@ -2271,18 +2476,20 @@
       <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="19"/>
+      <c r="G15" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>178</v>
+      </c>
       <c r="J15" s="19"/>
       <c r="K15" s="24"/>
     </row>
@@ -2290,20 +2497,20 @@
       <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="84" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
+      <c r="B16" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="131"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" s="19"/>
+      <c r="G16" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="124" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="62"/>
       <c r="J16" s="19"/>
       <c r="K16" s="24"/>
     </row>
@@ -2311,49 +2518,53 @@
       <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>108</v>
+      <c r="B17" s="84"/>
+      <c r="C17" s="136" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="137" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="137" t="s">
+        <v>104</v>
       </c>
       <c r="F17" s="19"/>
-      <c r="G17" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="G17" s="124" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="116" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>180</v>
+      </c>
       <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="57" t="s">
-        <v>111</v>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="138" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="83" t="s">
+        <v>107</v>
       </c>
       <c r="F18" s="19"/>
-      <c r="G18" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="I18" s="19"/>
+      <c r="G18" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="116" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="134"/>
       <c r="J18" s="19"/>
       <c r="K18" s="24"/>
     </row>
@@ -2361,16 +2572,16 @@
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="63"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="85"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>136</v>
+      <c r="G19" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="117" t="s">
+        <v>126</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -2387,8 +2598,8 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -2398,49 +2609,55 @@
       <c r="A23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="89" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>113</v>
+      <c r="B23" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="141" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="141" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="142" t="s">
+        <v>109</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="G23" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" s="118" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="133" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" s="140" t="s">
+        <v>182</v>
+      </c>
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="57" t="s">
-        <v>115</v>
+        <v>136</v>
+      </c>
+      <c r="B24" s="74"/>
+      <c r="C24" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="143" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>111</v>
       </c>
       <c r="F24" s="12"/>
-      <c r="G24" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="12"/>
+      <c r="G24" s="147" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" s="146" t="s">
+        <v>137</v>
+      </c>
+      <c r="I24" s="134"/>
       <c r="J24" s="12"/>
       <c r="K24" s="13"/>
     </row>
@@ -2448,18 +2665,20 @@
       <c r="A25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="91" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="50"/>
+      <c r="B25" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="66"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="61" t="s">
-        <v>150</v>
-      </c>
-      <c r="H25" s="62"/>
-      <c r="I25" s="12"/>
+      <c r="G25" s="111" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="110"/>
+      <c r="I25" s="150" t="s">
+        <v>183</v>
+      </c>
       <c r="J25" s="12"/>
       <c r="K25" s="13"/>
     </row>
@@ -2467,18 +2686,20 @@
       <c r="A26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="92" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="50"/>
+      <c r="B26" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="66"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="66"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="H26" s="53"/>
-      <c r="I26" s="12"/>
+      <c r="G26" s="111" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" s="151"/>
       <c r="J26" s="12"/>
       <c r="K26" s="13"/>
     </row>
@@ -2486,41 +2707,47 @@
       <c r="A27" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="51"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="67"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
+      <c r="G27" s="112" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" s="152" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>185</v>
+      </c>
       <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="94"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="36" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="I28" s="17"/>
+      <c r="G28" s="113" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="117" t="s">
+        <v>134</v>
+      </c>
+      <c r="I28" s="153"/>
       <c r="J28" s="17"/>
       <c r="K28" s="18"/>
     </row>
@@ -2536,8 +2763,8 @@
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
       <c r="I30" s="34"/>
       <c r="J30" s="34"/>
       <c r="K30" s="35"/>
@@ -2547,56 +2774,60 @@
       <c r="A32" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="95" t="s">
-        <v>165</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="56"/>
+      <c r="B32" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="90"/>
     </row>
     <row r="33" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="96"/>
-      <c r="C33" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="46"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="135" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="135" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="135" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="43"/>
+      <c r="G33" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" s="119" t="s">
+        <v>165</v>
+      </c>
+      <c r="I33" s="155" t="s">
+        <v>186</v>
+      </c>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
     </row>
     <row r="34" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="96"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="12"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="154"/>
       <c r="J34" s="12"/>
       <c r="K34" s="13"/>
     </row>
@@ -2604,47 +2835,51 @@
       <c r="A35" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="97"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="12"/>
+      <c r="G35" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" s="86" t="s">
+        <v>82</v>
+      </c>
       <c r="J35" s="12"/>
       <c r="K35" s="13"/>
     </row>
-    <row r="36" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="98" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="37" t="s">
+      <c r="B36" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="115"/>
+      <c r="D36" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="103" t="s">
         <v>84</v>
       </c>
       <c r="F36" s="12"/>
-      <c r="G36" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" s="50"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="12" t="s">
+        <v>187</v>
+      </c>
       <c r="K36" s="13"/>
     </row>
-    <row r="37" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="99"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="29" t="s">
         <v>85</v>
       </c>
@@ -2655,10 +2890,10 @@
         <v>87</v>
       </c>
       <c r="F37" s="36"/>
-      <c r="G37" s="36" t="s">
+      <c r="G37" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="63"/>
+      <c r="H37" s="122"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="18"/>
@@ -2675,8 +2910,8 @@
       <c r="D39" s="34"/>
       <c r="E39" s="34"/>
       <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
       <c r="I39" s="34"/>
       <c r="J39" s="34"/>
       <c r="K39" s="35"/>
@@ -2687,66 +2922,66 @@
         <v>29</v>
       </c>
       <c r="B41" s="41"/>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="77"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="60"/>
     </row>
     <row r="42" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="70"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="51"/>
     </row>
     <row r="43" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="73"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="54"/>
     </row>
     <row r="44" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B44" s="42"/>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="75"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="57"/>
     </row>
     <row r="45" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="s">
@@ -2759,10 +2994,12 @@
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="H45" s="53"/>
+      <c r="G45" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="H45" s="109" t="s">
+        <v>166</v>
+      </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
       <c r="K45" s="13"/>
@@ -2776,8 +3013,12 @@
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+      <c r="G46" s="109" t="s">
+        <v>167</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>168</v>
+      </c>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
       <c r="K46" s="13"/>
@@ -2791,8 +3032,8 @@
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
       <c r="K47" s="13"/>
@@ -2806,8 +3047,8 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="13"/>
@@ -2821,8 +3062,8 @@
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="13"/>
@@ -2836,33 +3077,37 @@
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
       <c r="I50" s="17"/>
       <c r="J50" s="17"/>
       <c r="K50" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="B42:K43"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D2:E2"/>
+  <mergeCells count="49">
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="I35:I36"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B16:B19"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="C6:C7"/>
@@ -2871,24 +3116,27 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="E13:E16"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="E18:E19"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B42:K43"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="H35:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2950,30 +3198,30 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="67"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="67"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="87" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="48"/>
+      <c r="E3" s="76"/>
       <c r="F3" s="9" t="s">
         <v>64</v>
       </c>
@@ -2987,12 +3235,12 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="62"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="12" t="s">
         <v>65</v>
       </c>
@@ -3008,9 +3256,9 @@
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="63" t="s">
         <v>78</v>
       </c>
       <c r="E5" s="12"/>
@@ -3025,11 +3273,11 @@
       <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="61" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="19"/>
-      <c r="D6" s="51"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -3042,12 +3290,12 @@
       <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="63" t="s">
         <v>76</v>
       </c>
       <c r="F7" s="12"/>
@@ -3061,12 +3309,12 @@
       <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="61" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -3078,10 +3326,10 @@
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -3116,10 +3364,10 @@
         <v>67</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="87" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="21"/>
@@ -3133,12 +3381,12 @@
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="63" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="19"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -3150,10 +3398,10 @@
       <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="51"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -3165,7 +3413,7 @@
       <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="63" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="19"/>
@@ -3182,7 +3430,7 @@
       <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -3197,7 +3445,7 @@
       <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="63" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="19"/>
@@ -3214,7 +3462,7 @@
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -3247,7 +3495,7 @@
       <c r="A23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="87" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="21"/>
@@ -3264,7 +3512,7 @@
       <c r="A24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="51"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="19"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -3279,7 +3527,7 @@
       <c r="A25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="63" t="s">
         <v>71</v>
       </c>
       <c r="C25" s="19"/>
@@ -3296,7 +3544,7 @@
       <c r="A26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="51"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="20"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -3311,7 +3559,7 @@
       <c r="A27" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="63" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="19"/>
@@ -3328,7 +3576,7 @@
       <c r="A28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="63"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="22"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -3362,7 +3610,7 @@
       <c r="A32" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="87" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="21"/>
@@ -3379,7 +3627,7 @@
       <c r="A33" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="51"/>
+      <c r="B33" s="62"/>
       <c r="C33" s="19"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -3394,7 +3642,7 @@
       <c r="A34" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="63" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="19"/>
@@ -3411,7 +3659,7 @@
       <c r="A35" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="51"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="19"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -3623,12 +3871,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="D2:E2"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="D7:D9"/>
@@ -3643,6 +3885,12 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2015_2016_SII/Progression_2015_2016_SII.xlsx
+++ b/2015_2016_SII/Progression_2015_2016_SII.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="188">
   <si>
     <t>Semaine</t>
   </si>
@@ -1391,7 +1391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1537,173 +1537,236 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1711,47 +1774,83 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1759,104 +1858,11 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2165,13 +2171,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2181,7 +2190,7 @@
     <col min="3" max="3" width="20.7109375" style="3" customWidth="1"/>
     <col min="4" max="5" width="42.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="8" style="4" customWidth="1"/>
-    <col min="7" max="8" width="41.140625" style="98" customWidth="1"/>
+    <col min="7" max="8" width="41.140625" style="55" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="4" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" style="4" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -2227,30 +2236,30 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="G2" s="101" t="s">
+      <c r="E2" s="138"/>
+      <c r="G2" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="101"/>
+      <c r="H2" s="111"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="118" t="s">
         <v>138</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="76"/>
+      <c r="E3" s="113"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
@@ -2259,20 +2268,20 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="119"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="77"/>
+      <c r="E4" s="115"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="97" t="s">
+      <c r="G4" s="54" t="s">
         <v>92</v>
       </c>
       <c r="H4" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="I4" s="63"/>
+      <c r="I4" s="91"/>
       <c r="J4" s="12"/>
       <c r="K4" s="13"/>
     </row>
@@ -2280,26 +2289,26 @@
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="120" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="94" t="s">
+      <c r="E5" s="51" t="s">
         <v>93</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="H5" s="116" t="s">
+      <c r="H5" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="I5" s="62"/>
+      <c r="I5" s="92"/>
       <c r="J5" s="12"/>
       <c r="K5" s="13"/>
     </row>
@@ -2307,27 +2316,27 @@
       <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="92" t="s">
+      <c r="B6" s="120"/>
+      <c r="C6" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="129" t="s">
+      <c r="E6" s="122" t="s">
         <v>96</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="97" t="s">
+      <c r="G6" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="116" t="s">
+      <c r="H6" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="J6" s="148" t="s">
+      <c r="J6" s="81" t="s">
         <v>175</v>
       </c>
       <c r="K6" s="13"/>
@@ -2336,18 +2345,18 @@
       <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="129"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="97" t="s">
+      <c r="G7" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="116" t="s">
+      <c r="H7" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="I7" s="93"/>
+      <c r="I7" s="95"/>
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
     </row>
@@ -2361,20 +2370,20 @@
       <c r="C8" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="126" t="s">
+      <c r="D8" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="126" t="s">
+      <c r="E8" s="123" t="s">
         <v>169</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="103" t="s">
+      <c r="G8" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="116" t="s">
+      <c r="H8" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="63" t="s">
+      <c r="I8" s="91" t="s">
         <v>172</v>
       </c>
       <c r="J8" s="12"/>
@@ -2387,17 +2396,17 @@
       <c r="B9" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="H9" s="117" t="s">
+      <c r="H9" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="64"/>
+      <c r="I9" s="93"/>
       <c r="J9" s="17" t="s">
         <v>176</v>
       </c>
@@ -2415,8 +2424,8 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="35"/>
@@ -2429,21 +2438,21 @@
       <c r="B13" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="130" t="s">
+      <c r="D13" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="130" t="s">
+      <c r="E13" s="128" t="s">
         <v>127</v>
       </c>
       <c r="F13" s="21"/>
-      <c r="G13" s="105" t="s">
+      <c r="G13" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="H13" s="106"/>
-      <c r="I13" s="92" t="s">
+      <c r="H13" s="127"/>
+      <c r="I13" s="94" t="s">
         <v>173</v>
       </c>
       <c r="J13" s="21" t="s">
@@ -2455,20 +2464,20 @@
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="107" t="s">
+      <c r="G14" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="116" t="s">
+      <c r="H14" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="I14" s="93"/>
+      <c r="I14" s="95"/>
       <c r="J14" s="19"/>
       <c r="K14" s="24"/>
     </row>
@@ -2476,18 +2485,18 @@
       <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="107" t="s">
+      <c r="G15" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="H15" s="116" t="s">
+      <c r="H15" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="I15" s="63" t="s">
+      <c r="I15" s="91" t="s">
         <v>178</v>
       </c>
       <c r="J15" s="19"/>
@@ -2497,20 +2506,20 @@
       <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="102" t="s">
+      <c r="G16" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="124" t="s">
+      <c r="H16" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="92"/>
       <c r="J16" s="19"/>
       <c r="K16" s="24"/>
     </row>
@@ -2518,24 +2527,24 @@
       <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="136" t="s">
+      <c r="B17" s="139"/>
+      <c r="C17" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="137" t="s">
+      <c r="D17" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="137" t="s">
+      <c r="E17" s="75" t="s">
         <v>104</v>
       </c>
       <c r="F17" s="19"/>
-      <c r="G17" s="124" t="s">
+      <c r="G17" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="116" t="s">
+      <c r="H17" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="83" t="s">
+      <c r="I17" s="82" t="s">
         <v>179</v>
       </c>
       <c r="J17" s="19" t="s">
@@ -2547,24 +2556,24 @@
       <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84" t="s">
+      <c r="B18" s="139"/>
+      <c r="C18" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="138" t="s">
+      <c r="D18" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="82" t="s">
         <v>107</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="H18" s="116" t="s">
+      <c r="H18" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="I18" s="134"/>
+      <c r="I18" s="83"/>
       <c r="J18" s="19"/>
       <c r="K18" s="24"/>
     </row>
@@ -2572,15 +2581,15 @@
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="85"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="140"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="108" t="s">
+      <c r="G19" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="117" t="s">
+      <c r="H19" s="70" t="s">
         <v>126</v>
       </c>
       <c r="I19" s="22"/>
@@ -2598,510 +2607,591 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:11" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" ht="177.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="138" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="138"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="111"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+    </row>
+    <row r="28" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B28" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C28" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="141" t="s">
+      <c r="D28" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="142" t="s">
+      <c r="E28" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="142" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="H23" s="118" t="s">
+      <c r="H28" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="I23" s="133" t="s">
+      <c r="I28" s="84" t="s">
         <v>181</v>
       </c>
-      <c r="J23" s="140" t="s">
+      <c r="J28" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="65" t="s">
+      <c r="B29" s="137"/>
+      <c r="C29" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="143" t="s">
+      <c r="D29" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E29" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="147" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="H24" s="146" t="s">
+      <c r="H29" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="I24" s="134"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
-    </row>
-    <row r="25" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="I29" s="83"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B30" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="111" t="s">
+      <c r="C30" s="102"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="H25" s="110"/>
-      <c r="I25" s="150" t="s">
+      <c r="H30" s="65"/>
+      <c r="I30" s="85" t="s">
         <v>183</v>
       </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="26" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+      <c r="J30" s="12"/>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B31" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="111" t="s">
+      <c r="C31" s="102"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="H26" s="116" t="s">
+      <c r="H31" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I26" s="151"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13"/>
-    </row>
-    <row r="27" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="I31" s="86"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="112" t="s">
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="H27" s="116" t="s">
+      <c r="H32" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="152" t="s">
+      <c r="I32" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J32" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="K27" s="13"/>
-    </row>
-    <row r="28" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="36" t="s">
+      <c r="B33" s="106"/>
+      <c r="C33" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D33" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E33" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="113" t="s">
+      <c r="F33" s="17"/>
+      <c r="G33" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="H28" s="117" t="s">
+      <c r="H33" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="I28" s="153"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18"/>
-    </row>
-    <row r="29" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+      <c r="I33" s="88"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B35" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="35"/>
-    </row>
-    <row r="31" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="35"/>
+    </row>
+    <row r="36" spans="1:11" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:11" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="B37" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C37" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="90"/>
-    </row>
-    <row r="33" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="100"/>
+    </row>
+    <row r="38" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="135" t="s">
+      <c r="B38" s="132"/>
+      <c r="C38" s="153" t="s">
         <v>131</v>
       </c>
-      <c r="D33" s="135" t="s">
+      <c r="D38" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="135" t="s">
+      <c r="E38" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="114" t="s">
+      <c r="F38" s="43"/>
+      <c r="G38" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="H33" s="119" t="s">
+      <c r="H38" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="I33" s="155" t="s">
+      <c r="I38" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="J33" s="43"/>
-      <c r="K33" s="44"/>
-    </row>
-    <row r="34" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+      <c r="J38" s="43"/>
+      <c r="K38" s="44"/>
+    </row>
+    <row r="39" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="13"/>
-    </row>
-    <row r="35" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+      <c r="B39" s="132"/>
+      <c r="C39" s="153"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="103" t="s">
+      <c r="B40" s="133"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="H35" s="121" t="s">
+      <c r="H40" s="154" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="86" t="s">
+      <c r="I40" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="J35" s="12"/>
-      <c r="K35" s="13"/>
-    </row>
-    <row r="36" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+      <c r="J40" s="12"/>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="71" t="s">
+      <c r="B41" s="134" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="103" t="s">
+      <c r="C41" s="108"/>
+      <c r="D41" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="103" t="s">
+      <c r="E41" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="12" t="s">
+      <c r="F41" s="12"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="K36" s="13"/>
-    </row>
-    <row r="37" spans="1:11" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="29" t="s">
+      <c r="B42" s="135"/>
+      <c r="C42" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D42" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E42" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="36"/>
-      <c r="G37" s="123" t="s">
+      <c r="F42" s="36"/>
+      <c r="G42" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="122"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="18"/>
-    </row>
-    <row r="38" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
+      <c r="H42" s="155"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="18"/>
+    </row>
+    <row r="43" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B44" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="35"/>
-    </row>
-    <row r="40" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="60"/>
-    </row>
-    <row r="42" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="51"/>
-    </row>
-    <row r="43" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="54"/>
-    </row>
-    <row r="44" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
       <c r="G44" s="56"/>
       <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="57"/>
-    </row>
-    <row r="45" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="109" t="s">
-        <v>130</v>
-      </c>
-      <c r="H45" s="109" t="s">
-        <v>166</v>
-      </c>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="13"/>
-    </row>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="35"/>
+    </row>
+    <row r="45" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="109" t="s">
-        <v>167</v>
-      </c>
-      <c r="H46" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="13"/>
+      <c r="A46" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="41"/>
+      <c r="C46" s="112" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="151"/>
+      <c r="E46" s="151"/>
+      <c r="F46" s="151"/>
+      <c r="G46" s="151"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
+      <c r="J46" s="151"/>
+      <c r="K46" s="152"/>
     </row>
     <row r="47" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="B47" s="143" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="144"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="144"/>
+      <c r="H47" s="144"/>
+      <c r="I47" s="144"/>
+      <c r="J47" s="144"/>
+      <c r="K47" s="145"/>
     </row>
     <row r="48" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="B48" s="146"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="147"/>
+      <c r="H48" s="147"/>
+      <c r="I48" s="147"/>
+      <c r="J48" s="147"/>
+      <c r="K48" s="148"/>
     </row>
     <row r="49" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="42"/>
+      <c r="C49" s="114" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="149"/>
+      <c r="E49" s="149"/>
+      <c r="F49" s="149"/>
+      <c r="G49" s="149"/>
+      <c r="H49" s="149"/>
+      <c r="I49" s="149"/>
+      <c r="J49" s="149"/>
+      <c r="K49" s="150"/>
+    </row>
+    <row r="50" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="42"/>
+      <c r="C50" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="42"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="42"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="42"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="13"/>
-    </row>
-    <row r="50" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40" t="s">
+      <c r="B54" s="15"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="13"/>
+    </row>
+    <row r="55" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="95"/>
-      <c r="H50" s="95"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="18"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="I35:I36"/>
+  <mergeCells count="51">
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B47:K48"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="I40:I41"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
@@ -3117,26 +3207,26 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="E13:E16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B42:K43"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I38:I39"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3198,30 +3288,30 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="75"/>
+      <c r="E2" s="138"/>
       <c r="F2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="75"/>
+      <c r="H2" s="138"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="156" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="76"/>
+      <c r="E3" s="113"/>
       <c r="F3" s="9" t="s">
         <v>64</v>
       </c>
@@ -3235,12 +3325,12 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="157"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="77"/>
+      <c r="E4" s="115"/>
       <c r="F4" s="12" t="s">
         <v>65</v>
       </c>
@@ -3256,9 +3346,9 @@
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="157"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="91" t="s">
         <v>78</v>
       </c>
       <c r="E5" s="12"/>
@@ -3273,11 +3363,11 @@
       <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="157" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="19"/>
-      <c r="D6" s="62"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -3290,12 +3380,12 @@
       <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="157"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="91" t="s">
         <v>76</v>
       </c>
       <c r="F7" s="12"/>
@@ -3309,12 +3399,12 @@
       <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="157" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -3326,10 +3416,10 @@
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="64"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -3364,10 +3454,10 @@
         <v>67</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="156" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="21"/>
@@ -3381,12 +3471,12 @@
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="91" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="19"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -3398,10 +3488,10 @@
       <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="62"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -3413,7 +3503,7 @@
       <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="91" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="19"/>
@@ -3430,7 +3520,7 @@
       <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="62"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -3445,7 +3535,7 @@
       <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="91" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="19"/>
@@ -3462,7 +3552,7 @@
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="64"/>
+      <c r="B19" s="93"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -3495,7 +3585,7 @@
       <c r="A23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="156" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="21"/>
@@ -3512,7 +3602,7 @@
       <c r="A24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="62"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="19"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -3527,7 +3617,7 @@
       <c r="A25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="91" t="s">
         <v>71</v>
       </c>
       <c r="C25" s="19"/>
@@ -3544,7 +3634,7 @@
       <c r="A26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="62"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="20"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -3559,7 +3649,7 @@
       <c r="A27" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="91" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="19"/>
@@ -3576,7 +3666,7 @@
       <c r="A28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="64"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="22"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -3610,7 +3700,7 @@
       <c r="A32" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="87" t="s">
+      <c r="B32" s="156" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="21"/>
@@ -3627,7 +3717,7 @@
       <c r="A33" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="62"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="19"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -3642,7 +3732,7 @@
       <c r="A34" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="91" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="19"/>
@@ -3659,7 +3749,7 @@
       <c r="A35" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="62"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="19"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -3871,6 +3961,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="D7:D9"/>
@@ -3885,12 +3981,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
